--- a/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>sMAPE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>RRMSE</t>
         </is>
       </c>
     </row>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.097879510559373</v>
+        <v>4.6662495432878</v>
       </c>
       <c r="C2" t="n">
         <v>0.3163548692605792</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1774949972104165</v>
+        <v>0.1188602275222856</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1251306713004278</v>
+        <v>6.059058258613357</v>
       </c>
       <c r="C3" t="n">
         <v>0.4064199432961968</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3050946619661041</v>
+        <v>0.1558334922777523</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1047836705862673</v>
+        <v>5.143549650299192</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3372653294377179</v>
+        <v>0.3500843384231701</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4495513836302003</v>
+        <v>0.131862307919165</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09662340282173676</v>
+        <v>4.611802278991341</v>
       </c>
       <c r="C5" t="n">
         <v>0.3124351357794506</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4176365752896842</v>
+        <v>0.1178262415503367</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09721462023247604</v>
+        <v>4.635195020067008</v>
       </c>
       <c r="C6" t="n">
         <v>0.3135758439480661</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4203487258312441</v>
+        <v>0.1185914104166149</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1175674087595402</v>
+        <v>5.657411317437997</v>
       </c>
       <c r="C7" t="n">
         <v>0.3862496371153779</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5059467645035227</v>
+        <v>0.1427408642182587</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1237885933254905</v>
+        <v>5.990656080574971</v>
       </c>
       <c r="C8" t="n">
         <v>0.4020263322368716</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5458944434526205</v>
+        <v>0.154011153143425</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1247857895976959</v>
+        <v>6.039820096535652</v>
       </c>
       <c r="C9" t="n">
         <v>0.405467219478476</v>
       </c>
       <c r="D9" t="n">
-        <v>0.551035381175634</v>
+        <v>0.1554615466333315</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.182911371319632</v>
+        <v>36.90938864110895</v>
       </c>
       <c r="C10" t="n">
         <v>5.223520027379567</v>
       </c>
       <c r="D10" t="n">
-        <v>5.223843205449199</v>
+        <v>1.173546231436692</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2080019323715584</v>
+        <v>8.812951018126379</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6561187720479613</v>
+        <v>0.6530491016905356</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7866918410291267</v>
+        <v>0.2210229214137154</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2430380436140074</v>
+        <v>10.21465240967213</v>
       </c>
       <c r="C12" t="n">
         <v>0.7747267834167452</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9007841027531391</v>
+        <v>0.2541348424813508</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1985268872140066</v>
+        <v>8.461775512273372</v>
       </c>
       <c r="C13" t="n">
         <v>0.6233271546474428</v>
       </c>
       <c r="D13" t="n">
-        <v>0.759048766021843</v>
+        <v>0.214147583198956</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.6662495432878</v>
+        <v>4.66624954327577</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3163548692605792</v>
+        <v>0.3163548692599277</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1188602275222856</v>
+        <v>0.1188602275221754</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.059058258613357</v>
+        <v>6.05901510629794</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4064199432961968</v>
+        <v>0.4064176811934223</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1558334922777523</v>
+        <v>0.15583305792398</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.143549650299192</v>
+        <v>5.143549649882091</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3500843384231701</v>
+        <v>0.3500843383930447</v>
       </c>
       <c r="D4" t="n">
-        <v>0.131862307919165</v>
+        <v>0.1318623079074054</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.611802278991341</v>
+        <v>4.611778108630204</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3124351357794506</v>
+        <v>0.3124332824657966</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1178262415503367</v>
+        <v>0.1178256531867691</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.635195020067008</v>
+        <v>4.662612866365352</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3135758439480661</v>
+        <v>0.3155180656995901</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1185914104166149</v>
+        <v>0.1191117722962414</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.657411317437997</v>
+        <v>5.640569554976691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3862496371153779</v>
+        <v>0.3850700923501186</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1427408642182587</v>
+        <v>0.1421854356664436</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.990656080574971</v>
+        <v>5.992130165667257</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4020263322368716</v>
+        <v>0.4021424660859597</v>
       </c>
       <c r="D8" t="n">
-        <v>0.154011153143425</v>
+        <v>0.1540541544698998</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.039820096535652</v>
+        <v>6.034884223680519</v>
       </c>
       <c r="C9" t="n">
-        <v>0.405467219478476</v>
+        <v>0.4051637211072773</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1554615466333315</v>
+        <v>0.1553241235004782</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.90938864110895</v>
+        <v>5.363708606419194</v>
       </c>
       <c r="C10" t="n">
-        <v>5.223520027379567</v>
+        <v>0.4669047839131917</v>
       </c>
       <c r="D10" t="n">
-        <v>1.173546231436692</v>
+        <v>0.1234941320096317</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.812951018126379</v>
+        <v>8.860313033487916</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6530491016905356</v>
+        <v>0.6570710101827859</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2210229214137154</v>
+        <v>0.2219813998070955</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.21465240967213</v>
+        <v>9.032022249454968</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7747267834167452</v>
+        <v>0.6717792414034121</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2541348424813508</v>
+        <v>0.2259156446361608</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.461775512273372</v>
+        <v>9.936301682982625</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6233271546474428</v>
+        <v>0.750076612563307</v>
       </c>
       <c r="D13" t="n">
-        <v>0.214147583198956</v>
+        <v>0.2468676508263249</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.860313033487916</v>
+        <v>8.882148924672242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6570710101827859</v>
+        <v>0.6589385387782273</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2219813998070955</v>
+        <v>0.2225324899354263</v>
       </c>
     </row>
     <row r="12">
